--- a/Test_Cases_Guru.xlsx
+++ b/Test_Cases_Guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worth\Desktop\SkillFlex\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A01528-2C0B-411E-A912-8C2AD7332C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378375A5-ED75-4DB1-9EE3-55619CF8248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>1. Launch browser and navigate to https://demo.guru99.com/V4/index.php
-2. Enter the valid user name: mngr621403
-3. Enter the valid password: rApugap
-4. Click the login button</t>
-  </si>
-  <si>
-    <t>1. Launch browser and navigate to https://demo.guru99.com/V4/index.php
 2. Click on 'Steps to Generate Access'
 3. Enter email ID: joy@gmail.com
 4. Click submit button</t>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>Customer ID: 1234, Email: testSubha.email@gmail.com</t>
+  </si>
+  <si>
+    <t>1. Launch browser and navigate to https://demo.guru99.com/V4/index.php
+2. Enter the valid user name: Subha123
+3. Enter the valid password: subha@123
+4. Click the login button</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,13 +590,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -610,13 +610,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -630,13 +630,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -650,13 +650,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -670,13 +670,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -690,13 +690,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
